--- a/Documentation/Suddivisione Compiti.xlsx
+++ b/Documentation/Suddivisione Compiti.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7AC2551-D13B-49F5-94F5-E3DD3B277213}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
-    <sheet name="Foglio2" sheetId="2" r:id="rId2"/>
+    <sheet name="COMPITI" sheetId="1" r:id="rId1"/>
+    <sheet name="RUOLI" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="22">
   <si>
     <t>ATTIVITA'</t>
   </si>
@@ -45,12 +46,48 @@
   </si>
   <si>
     <t>X</t>
+  </si>
+  <si>
+    <t>DatiCondivisi</t>
+  </si>
+  <si>
+    <t>thVasca</t>
+  </si>
+  <si>
+    <t>Posizione</t>
+  </si>
+  <si>
+    <t>Acqua</t>
+  </si>
+  <si>
+    <t>Barca</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Input</t>
+  </si>
+  <si>
+    <t>DOC SPIEGAZIONE</t>
+  </si>
+  <si>
+    <t>RUOLI</t>
+  </si>
+  <si>
+    <t>CAPO PROGETTO</t>
+  </si>
+  <si>
+    <t>SVILUPPATORI</t>
+  </si>
+  <si>
+    <t>TESTER</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -60,12 +97,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -80,8 +129,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -175,6 +227,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -210,6 +279,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -385,11 +471,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -419,7 +505,7 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -435,25 +521,170 @@
       <c r="A4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="16.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>